--- a/FantaSoccer/MyModule/Ligue1/xGA_away_all_18.xlsx
+++ b/FantaSoccer/MyModule/Ligue1/xGA_away_all_18.xlsx
@@ -815,31 +815,31 @@
         <v>4.373451</v>
       </c>
       <c r="K6">
-        <v>4.373451</v>
+        <v>4.492175</v>
       </c>
       <c r="L6">
-        <v>4.373451</v>
+        <v>4.492175</v>
       </c>
       <c r="M6">
-        <v>5.045534</v>
+        <v>5.164258</v>
       </c>
       <c r="N6">
-        <v>5.045534</v>
+        <v>5.164258</v>
       </c>
       <c r="O6">
-        <v>5.549356</v>
+        <v>5.66808</v>
       </c>
       <c r="P6">
-        <v>5.549356</v>
+        <v>5.66808</v>
       </c>
       <c r="Q6">
-        <v>6.477847000000001</v>
+        <v>6.596571</v>
       </c>
       <c r="R6">
-        <v>7.638227000000001</v>
+        <v>7.756951</v>
       </c>
       <c r="S6">
-        <v>7.638227000000001</v>
+        <v>7.756951</v>
       </c>
     </row>
     <row r="7" spans="1:19">
